--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Vip-Adcyap1r1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Vip-Adcyap1r1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,9 +89,6 @@
   </si>
   <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,19 +525,19 @@
         <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.1897233333333334</v>
+        <v>0.7349876666666667</v>
       </c>
       <c r="H2">
-        <v>0.5691700000000001</v>
+        <v>2.204963</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -549,34 +546,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.156116</v>
+        <v>3.692918333333334</v>
       </c>
       <c r="N2">
-        <v>0.468348</v>
+        <v>11.078755</v>
       </c>
       <c r="O2">
-        <v>0.02271718755991117</v>
+        <v>0.9367638696585037</v>
       </c>
       <c r="P2">
-        <v>0.02658764121001505</v>
+        <v>0.956934821355692</v>
       </c>
       <c r="Q2">
-        <v>0.02961884790666667</v>
+        <v>2.714249429007222</v>
       </c>
       <c r="R2">
-        <v>0.26656963116</v>
+        <v>24.428244861065</v>
       </c>
       <c r="S2">
-        <v>0.02271718755991117</v>
+        <v>0.9367638696585037</v>
       </c>
       <c r="T2">
-        <v>0.02658764121001505</v>
+        <v>0.956934821355692</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,179 +587,55 @@
         <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>0.7349876666666667</v>
+      </c>
+      <c r="H3">
+        <v>2.204963</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
         <v>2</v>
       </c>
-      <c r="F3">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G3">
-        <v>0.1897233333333334</v>
-      </c>
-      <c r="H3">
-        <v>0.5691700000000001</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>3</v>
-      </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.692918333333334</v>
+        <v>0.24929</v>
       </c>
       <c r="N3">
-        <v>11.078755</v>
+        <v>0.49858</v>
       </c>
       <c r="O3">
-        <v>0.5373742500561627</v>
+        <v>0.06323613034149642</v>
       </c>
       <c r="P3">
-        <v>0.6289296911562775</v>
+        <v>0.04306517864430803</v>
       </c>
       <c r="Q3">
-        <v>0.7006327759277778</v>
+        <v>0.1832250754233334</v>
       </c>
       <c r="R3">
-        <v>6.305694983350001</v>
+        <v>1.09935045254</v>
       </c>
       <c r="S3">
-        <v>0.5373742500561627</v>
+        <v>0.06323613034149642</v>
       </c>
       <c r="T3">
-        <v>0.6289296911562775</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="F4">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G4">
-        <v>0.1897233333333334</v>
-      </c>
-      <c r="H4">
-        <v>0.5691700000000001</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>2</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>3.0012085</v>
-      </c>
-      <c r="N4">
-        <v>6.002416999999999</v>
-      </c>
-      <c r="O4">
-        <v>0.4367202362403576</v>
-      </c>
-      <c r="P4">
-        <v>0.3407511286242172</v>
-      </c>
-      <c r="Q4">
-        <v>0.5693992806483333</v>
-      </c>
-      <c r="R4">
-        <v>3.41639568389</v>
-      </c>
-      <c r="S4">
-        <v>0.4367202362403576</v>
-      </c>
-      <c r="T4">
-        <v>0.3407511286242172</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G5">
-        <v>0.1897233333333334</v>
-      </c>
-      <c r="H5">
-        <v>0.5691700000000001</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M5">
-        <v>0.02191066666666667</v>
-      </c>
-      <c r="N5">
-        <v>0.065732</v>
-      </c>
-      <c r="O5">
-        <v>0.003188326143568631</v>
-      </c>
-      <c r="P5">
-        <v>0.003731539009490185</v>
-      </c>
-      <c r="Q5">
-        <v>0.004156964715555556</v>
-      </c>
-      <c r="R5">
-        <v>0.03741268244</v>
-      </c>
-      <c r="S5">
-        <v>0.003188326143568631</v>
-      </c>
-      <c r="T5">
-        <v>0.003731539009490185</v>
+        <v>0.04306517864430803</v>
       </c>
     </row>
   </sheetData>
